--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cytl1-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cytl1-Ccr2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.765933666666667</v>
+      </c>
+      <c r="H2">
+        <v>5.297801000000001</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>1.552751333333333</v>
-      </c>
-      <c r="H2">
-        <v>4.658254</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>9.506851333333332</v>
+        <v>0.02564166666666666</v>
       </c>
       <c r="N2">
-        <v>28.520554</v>
+        <v>0.07692499999999999</v>
       </c>
       <c r="O2">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="P2">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="Q2">
-        <v>14.76177608363511</v>
+        <v>0.04528148243611111</v>
       </c>
       <c r="R2">
-        <v>132.855984752716</v>
+        <v>0.407533341925</v>
       </c>
       <c r="S2">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="T2">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.552751333333333</v>
+        <v>1.765933666666667</v>
       </c>
       <c r="H3">
-        <v>4.658254</v>
+        <v>5.297801000000001</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.01112833333333334</v>
+        <v>0.01112833333333333</v>
       </c>
       <c r="N3">
         <v>0.033385</v>
       </c>
       <c r="O3">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="P3">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="Q3">
-        <v>0.01727953442111111</v>
+        <v>0.01965189848722222</v>
       </c>
       <c r="R3">
-        <v>0.15551580979</v>
+        <v>0.176867086385</v>
       </c>
       <c r="S3">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="T3">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.552751333333333</v>
+        <v>1.765933666666667</v>
       </c>
       <c r="H4">
-        <v>4.658254</v>
+        <v>5.297801000000001</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,22 +685,22 @@
         <v>0.104612</v>
       </c>
       <c r="O4">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320236</v>
       </c>
       <c r="P4">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320235</v>
       </c>
       <c r="Q4">
-        <v>0.05414547416088889</v>
+        <v>0.06157928424577779</v>
       </c>
       <c r="R4">
-        <v>0.487309267448</v>
+        <v>0.554213558212</v>
       </c>
       <c r="S4">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320236</v>
       </c>
       <c r="T4">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320235</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.552751333333333</v>
+        <v>1.765933666666667</v>
       </c>
       <c r="H5">
-        <v>4.658254</v>
+        <v>5.297801000000001</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>194.1975953333333</v>
+        <v>37.74401233333333</v>
       </c>
       <c r="N5">
-        <v>582.592786</v>
+        <v>113.232037</v>
       </c>
       <c r="O5">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="P5">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="Q5">
-        <v>301.5405750839604</v>
+        <v>66.65342209451522</v>
       </c>
       <c r="R5">
-        <v>2713.865175755644</v>
+        <v>599.880798850637</v>
       </c>
       <c r="S5">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="T5">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
     </row>
   </sheetData>
